--- a/input/design-table/org.umeframework.ems.uac.entity/DB设计-UME用户扩展信息表_v1.0.xlsx
+++ b/input/design-table/org.umeframework.ems.uac.entity/DB设计-UME用户扩展信息表_v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#REV" sheetId="8" r:id="rId1"/>
@@ -238,9 +238,6 @@
     <t>更新历史开启</t>
   </si>
   <si>
-    <t>微信用户基础属性表</t>
-  </si>
-  <si>
     <t>UME_WECHAT_USER</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>UME基础用户扩展信息表系统设计</t>
+  </si>
+  <si>
+    <t>微信用户属性表</t>
   </si>
 </sst>
 </file>
@@ -3526,85 +3526,103 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="2" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="7" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="9" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="14" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="15" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="16" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="13" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="2" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="7" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="99" fillId="27" borderId="10" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="28" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="9" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="14" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="15" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="16" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="27" borderId="13" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3616,28 +3634,10 @@
     <xf numFmtId="0" fontId="95" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="28" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4864,7 +4864,7 @@
   </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
       <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
@@ -4876,185 +4876,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="44" t="s">
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44" t="s">
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44" t="s">
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="45"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="50"/>
     </row>
     <row r="2" spans="1:53" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51">
+      <c r="A2" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="35">
         <v>20150001</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="46" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="36">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="44">
         <v>43161</v>
       </c>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36" t="s">
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36">
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44">
         <v>43161</v>
       </c>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
     </row>
     <row r="3" spans="1:53" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
     </row>
     <row r="4" spans="1:53" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="12"/>
@@ -5063,570 +5063,570 @@
       </c>
     </row>
     <row r="5" spans="1:53" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="52" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="41" t="s">
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="42"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="57"/>
       <c r="AX5" s="13"/>
       <c r="AY5" s="13"/>
       <c r="AZ5" s="13"/>
       <c r="BA5" s="14"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55">
+      <c r="A6" s="40">
         <v>1</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="33">
+      <c r="B6" s="41"/>
+      <c r="C6" s="32">
         <v>43161</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="38" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40" t="s">
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="39"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="54"/>
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="AZ6" s="16"/>
       <c r="BA6" s="17"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="39"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="54"/>
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="AZ7" s="16"/>
       <c r="BA7" s="17"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="39"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="54"/>
       <c r="AX8" s="16"/>
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
       <c r="BA8" s="17"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="39"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="54"/>
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
       <c r="BA9" s="17"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
-      <c r="AT10" s="38"/>
-      <c r="AU10" s="38"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="39"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="54"/>
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
       <c r="BA10" s="17"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
-      <c r="AT11" s="38"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="39"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="54"/>
       <c r="AX11" s="16"/>
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16"/>
       <c r="BA11" s="17"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="39"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="54"/>
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
       <c r="BA12" s="17"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="39"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="54"/>
       <c r="AX13" s="16"/>
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
       <c r="BA13" s="17"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="39"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="54"/>
       <c r="AX14" s="16"/>
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16"/>
@@ -5650,21 +5650,39 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -5681,39 +5699,21 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
   </mergeCells>
   <phoneticPr fontId="43"/>
   <dataValidations count="3">
@@ -5743,7 +5743,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -5761,65 +5761,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="69" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="66" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
@@ -5913,10 +5913,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>34</v>
@@ -5941,10 +5941,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>34</v>
@@ -5967,10 +5967,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>34</v>
@@ -5993,10 +5993,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>34</v>
@@ -6019,10 +6019,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>34</v>
@@ -6045,10 +6045,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>34</v>
@@ -6073,10 +6073,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>34</v>
@@ -6099,10 +6099,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>34</v>
@@ -6125,10 +6125,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>34</v>
@@ -6151,10 +6151,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>34</v>
@@ -6177,10 +6177,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>35</v>
@@ -6201,10 +6201,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>34</v>
@@ -6227,10 +6227,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>35</v>
@@ -6251,13 +6251,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="22"/>
@@ -6344,7 +6344,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6362,65 +6362,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="69" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="66" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
@@ -6517,7 +6517,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>35</v>
@@ -6542,10 +6542,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>34</v>
@@ -6568,10 +6568,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>34</v>
@@ -6594,10 +6594,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>80</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>34</v>
@@ -6620,10 +6620,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>34</v>
@@ -6646,10 +6646,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>34</v>
@@ -6672,10 +6672,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>34</v>
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>34</v>
@@ -6777,8 +6777,8 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6796,65 +6796,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="69" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="66" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
@@ -6951,7 +6951,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>35</v>
@@ -6976,10 +6976,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>91</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>92</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>35</v>
@@ -7000,10 +7000,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>34</v>
@@ -7026,10 +7026,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>34</v>
@@ -7052,10 +7052,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>34</v>
@@ -7078,13 +7078,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="28"/>
@@ -7102,10 +7102,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>34</v>
